--- a/VIDEOS AULAS-SERVER1-SERVER1.xlsx
+++ b/VIDEOS AULAS-SERVER1-SERVER1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t xml:space="preserve">ENCONTRO </t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t xml:space="preserve">AULA 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teste</t>
   </si>
 </sst>
 </file>
@@ -528,13 +531,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.71"/>
@@ -848,6 +851,11 @@
       </c>
       <c r="D22" s="0" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +880,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/VIDEOS AULAS-SERVER1-SERVER1.xlsx
+++ b/VIDEOS AULAS-SERVER1-SERVER1.xlsx
@@ -170,7 +170,7 @@
     <t xml:space="preserve">AULA 3</t>
   </si>
   <si>
-    <t xml:space="preserve">teste</t>
+    <t xml:space="preserve">Teste 2</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
       <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.71"/>
@@ -880,7 +880,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
